--- a/tests/stubs/2sheets2rows.xlsx
+++ b/tests/stubs/2sheets2rows.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Akbari\Documents\excel-importer-enterprise\tests\stubs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3703DE-63C4-4C68-A318-7AB2604C79A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F3A263-05F8-4961-A924-C067CA4606FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E13D2AB0-CB0B-415E-A345-45BBF21F4FE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
